--- a/ycsb workload performance.xlsx
+++ b/ycsb workload performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\Documents\Semester 2\sem two ca 2\Processing-big-data-for-sentiment-analysis-and-time-series-forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E30576E-2C69-4A25-9831-513359563AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B916DDFB-219D-42CB-9D26-3D6342026E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="12924" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="12924" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workload a" sheetId="1" r:id="rId1"/>
@@ -472,29 +472,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,8 +508,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALD112"/>
   <sheetViews>
-    <sheetView topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:H111"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -873,27 +873,27 @@
     <row r="1" spans="1:992" s="9" customFormat="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:992" s="9" customFormat="1">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23"/>
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:992">
@@ -2528,29 +2528,29 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="C30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15"/>
@@ -3207,27 +3207,27 @@
     <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="21"/>
+      <c r="C59" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G59" s="21"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
@@ -3877,28 +3877,28 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" s="17"/>
-      <c r="C87" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21" t="s">
+      <c r="C87" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" s="18"/>
@@ -4547,18 +4547,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:H87"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:H87"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4589,28 +4589,28 @@
   <sheetData>
     <row r="1" spans="1:1001">
       <c r="A1" s="16"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:1001">
@@ -6263,16 +6263,16 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="16"/>
@@ -6285,30 +6285,30 @@
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="16"/>
@@ -6967,29 +6967,29 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="25"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8">
@@ -7649,16 +7649,16 @@
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="16"/>
@@ -7671,30 +7671,30 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25" t="s">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="16"/>
@@ -8344,6 +8344,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A89:H89"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8351,13 +8358,6 @@
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A31:H31"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A89:H89"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <headerFooter>
@@ -8371,7 +8371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ALZ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F111" sqref="F111:H115"/>
     </sheetView>
   </sheetViews>
@@ -8384,29 +8384,29 @@
   <sheetData>
     <row r="1" spans="1:1014" s="1" customFormat="1" ht="15.6">
       <c r="A1" s="8"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:1014" s="1" customFormat="1" ht="15.6">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:1014" ht="15.6">
       <c r="A3" s="10"/>
@@ -12162,18 +12162,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:H91"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <headerFooter>
